--- a/pred_ohlcv/54_21/2020-01-16 GXC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 GXC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-17131.14079669</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-17651.95179696</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-9797.661624070002</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-4224.698830550003</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-5390.502730550003</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-6089.702730550002</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-6553.647430550002</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-6558.847430550002</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-3425.438830550002</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-3803.199430550002</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-6203.069330550003</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-6199.927599910003</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-5197.927599910003</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-8197.960899910002</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-6636.387199910002</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-6636.387199910002</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-8785.863199910002</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-10156.69379991</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-6348.138199910001</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-6785.958999910002</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-6778.758999910002</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-23944.05089991</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-22226.96979991</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-22230.96979991</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-21933.01939991</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-21696.94859991</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-23636.65079991</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-23636.65079991</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-24008.46479991</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-23704.65099991</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-24091.75099991</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-34221.00849990999</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-35878.49949990999</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-35443.33228252999</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-35443.33228252999</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-35403.33228252999</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-35283.33228252999</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-35280.99328252999</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-36841.74098252999</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-36402.65678252999</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-36402.65678252999</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-38058.05328253</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-35110.76658253</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-35110.76658253</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-35110.76658253</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-35425.16098253</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-35422.16098253</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-35806.81238253</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-35806.81238253</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-35806.81238253</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-35886.80308253</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-35885.70308253</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-36034.53518253</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-35985.01348253</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-35985.01348253</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-35945.01348253</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-35856.91428253001</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-35856.91428253001</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-35391.84398253001</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-32600.69878253001</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-32599.58878253001</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-32649.27008253001</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-32685.61608253001</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-32042.24698253001</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-32042.24698253001</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-32376.63108253001</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-32498.63108253001</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-32496.63108253001</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-32590.29288253001</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-32622.84087605001</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-31321.84087605001</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-31277.94087605</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-31198.33707605</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-34346.63147605</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-34345.63147605</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-34670.45727605</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-34670.45727605</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-34138.73127605</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-49957.92033148</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-49815.97113147999</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-49815.97113147999</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-49852.55613147999</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-49094.14113147999</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-48654.14023147999</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-48654.14023147999</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-48749.14023147999</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-48747.14023147999</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-48766.63263148</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-46825.91023148</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-47205.91023148</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-46533.10043147999</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-42721.30333148</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-44652.86717716</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-43034.80897716</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-43227.01967716</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-45781.67057716</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-47373.99187716001</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-84964.79297715999</v>
       </c>
       <c r="H249">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-88082.29897716</v>
       </c>
       <c r="H255">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-86883.64797715998</v>
       </c>
       <c r="H257">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-83807.67217715998</v>
       </c>
       <c r="H259">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-83806.57217715998</v>
       </c>
       <c r="H260">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-83027.57217715998</v>
       </c>
       <c r="H261">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-83046.96107715998</v>
       </c>
       <c r="H262">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-83626.84927715998</v>
       </c>
       <c r="H263">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-83625.74927715998</v>
       </c>
       <c r="H264">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-83046.96117715997</v>
       </c>
       <c r="H265">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-83041.35117715997</v>
       </c>
       <c r="H266">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-83041.35117715997</v>
       </c>
       <c r="H267">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-82701.35117715997</v>
       </c>
       <c r="H268">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-82702.55117715997</v>
       </c>
       <c r="H269">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-82701.38377715996</v>
       </c>
       <c r="H270">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-82701.38377715996</v>
       </c>
       <c r="H271">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-84058.59347715997</v>
       </c>
       <c r="H272">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-84082.59347715997</v>
       </c>
       <c r="H273">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-84077.32247715998</v>
       </c>
       <c r="H274">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-83987.62247715998</v>
       </c>
       <c r="H276">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-76489.70267715998</v>
       </c>
       <c r="H277">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-76000.70147715998</v>
       </c>
       <c r="H283">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-75960.70147715998</v>
       </c>
       <c r="H284">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-75880.70147715998</v>
       </c>
       <c r="H285">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-75953.38167715998</v>
       </c>
       <c r="H288">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-75952.28167715998</v>
       </c>
       <c r="H289">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-78076.53237715998</v>
       </c>
       <c r="H292">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-78075.43237715997</v>
       </c>
       <c r="H293">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-78075.43237715997</v>
       </c>
       <c r="H294">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-79773.93627715997</v>
       </c>
       <c r="H295">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-79772.83627715996</v>
       </c>
       <c r="H296">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-79771.73627715996</v>
       </c>
       <c r="H297">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-79770.63627715995</v>
       </c>
       <c r="H298">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-78930.63627715995</v>
       </c>
       <c r="H299">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-78930.63627715995</v>
       </c>
       <c r="H300">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-78657.44627715995</v>
       </c>
       <c r="H301">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-80243.43867715995</v>
       </c>
       <c r="H302">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-80242.33867715995</v>
       </c>
       <c r="H303">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-80162.33867715995</v>
       </c>
       <c r="H304">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-80161.23867715994</v>
       </c>
       <c r="H305">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-80161.23867715994</v>
       </c>
       <c r="H306">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-80110.13867715994</v>
       </c>
       <c r="H307">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-79510.13867715994</v>
       </c>
       <c r="H308">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-79550.13867715994</v>
       </c>
       <c r="H309">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-79550.13867715994</v>
       </c>
       <c r="H310">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-79788.65667715993</v>
       </c>
       <c r="H311">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-79787.55667715993</v>
       </c>
       <c r="H312">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-79808.06637715992</v>
       </c>
       <c r="H313">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-81823.18457715992</v>
       </c>
       <c r="H314">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-81823.18457715992</v>
       </c>
       <c r="H315">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-81513.18457715992</v>
       </c>
       <c r="H316">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-80213.18457715992</v>
       </c>
       <c r="H317">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-16 GXC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 GXC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-17131.14079669</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-17651.95179696</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-9797.661624070002</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-4224.698830550003</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-5390.502730550003</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-6089.702730550002</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>-6553.647430550002</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>-6558.847430550002</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-3425.438830550002</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-3803.199430550002</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-6203.069330550003</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-6199.927599910003</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-5197.927599910003</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-8197.960899910002</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-6636.387199910002</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-6636.387199910002</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-8785.863199910002</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-10156.69379991</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-6348.138199910001</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>-6785.958999910002</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-6778.758999910002</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-23944.05089991</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-22226.96979991</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-22230.96979991</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-21933.01939991</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>-21696.94859991</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>-23636.65079991</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>-23636.65079991</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-24008.46479991</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-23704.65099991</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-24091.75099991</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-32649.27008253001</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-32685.61608253001</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-32042.24698253001</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-32042.24698253001</v>
       </c>
       <c r="H120">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-32376.63108253001</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-32498.63108253001</v>
       </c>
       <c r="H122">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-32496.63108253001</v>
       </c>
       <c r="H123">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-32590.29288253001</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>-30027.69788253001</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>-30027.69788253001</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>-22456.00087605001</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>-32622.84087605001</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-31321.84087605001</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>-31277.94087605</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>-31198.33707605</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>-34346.63147605</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-34345.63147605</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-34670.45727605</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-34670.45727605</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-34138.73127605</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-49957.92033148</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-49815.97113147999</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-49815.97113147999</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-49852.55613147999</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-49094.14113147999</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-48654.14023147999</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-85963.86297716</v>
       </c>
       <c r="H250">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-85963.86297716</v>
       </c>
       <c r="H251">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-85963.86297716</v>
       </c>
       <c r="H252">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-85963.86297716</v>
       </c>
       <c r="H253">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-85963.86297716</v>
       </c>
       <c r="H254">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-84471.87137715999</v>
       </c>
       <c r="H258">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-84082.59347715997</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-76126.56047715998</v>
       </c>
       <c r="H280">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-76166.29957715998</v>
       </c>
       <c r="H282">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-75960.70147715998</v>
       </c>
       <c r="H284">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-75953.38167715998</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-75952.28167715998</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-78076.53237715998</v>
       </c>
       <c r="H292">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-78075.43237715997</v>
       </c>
       <c r="H293">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-78075.43237715997</v>
       </c>
       <c r="H294">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-79773.93627715997</v>
       </c>
       <c r="H295">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-79772.83627715996</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-79771.73627715996</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-79770.63627715995</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-78930.63627715995</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-78930.63627715995</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-78657.44627715995</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-80243.43867715995</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-80242.33867715995</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-80162.33867715995</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-80161.23867715994</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-80161.23867715994</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-80110.13867715994</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-79510.13867715994</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-79550.13867715994</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-79550.13867715994</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-79788.65667715993</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-79787.55667715993</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-79808.06637715992</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-81823.18457715992</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-81823.18457715992</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-81513.18457715992</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-80213.18457715992</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
